--- a/code/results.xlsx
+++ b/code/results.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -1051,7 +1051,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1354,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="8">
-        <v>0</v>
+        <v>60614</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>19</v>
@@ -1604,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="8">
-        <v>0</v>
+        <v>454</v>
       </c>
       <c r="I28" s="9"/>
     </row>
@@ -1631,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="8">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
     </row>
@@ -1879,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I41" s="9"/>
     </row>
@@ -2134,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="H54" s="8">
-        <v>0</v>
+        <v>36949</v>
       </c>
       <c r="I54" s="9"/>
     </row>
@@ -2161,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="H55" s="8">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I55" s="9"/>
     </row>
@@ -2399,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="H67" s="8">
-        <v>0</v>
+        <v>13181</v>
       </c>
       <c r="I67" s="9"/>
     </row>
@@ -2426,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="H68" s="8">
-        <v>0</v>
+        <v>431</v>
       </c>
       <c r="I68" s="9"/>
     </row>
@@ -2675,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="H81" s="8">
-        <v>0</v>
+        <v>60654</v>
       </c>
       <c r="I81" s="9" t="s">
         <v>19</v>
